--- a/工作内容表.xlsx
+++ b/工作内容表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DiskTop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284522B-9309-4B02-8075-37F158A6DE8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7800" tabRatio="795" activeTab="5"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="795" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Action" sheetId="1" r:id="rId1"/>
@@ -22,12 +28,20 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">list!$A$1:$H$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$D$1:$H$14</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="343">
   <si>
     <t>时间</t>
   </si>
@@ -884,24 +898,12 @@
     <t>老问题，重启后该问题解决</t>
   </si>
   <si>
-    <t>是否打印小票的 点击是 造成返回主界面提示交易失败。</t>
-  </si>
-  <si>
     <t>远程九亭Android机器测试，无问题</t>
   </si>
   <si>
     <t>系统启动时，扫描任意条码提示二维码错误</t>
   </si>
   <si>
-    <t>补打小票界面同时操作多个小票详情按钮，造成闪退重启</t>
-  </si>
-  <si>
-    <t>结算成功后快速点击返回，系统返回主界面，等待5秒后，打印取餐码，系统闪退重启</t>
-  </si>
-  <si>
-    <t>补打小票：点击连接测试后，页面弹出较慢，返回其他界面，造成页面闪退</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
@@ -948,15 +950,6 @@
   </si>
   <si>
     <t>VPN</t>
-  </si>
-  <si>
-    <t>rna.aldi.cn</t>
-  </si>
-  <si>
-    <t>jisheng_zhang_ext@aisino-wincor.com</t>
-  </si>
-  <si>
-    <t>j9@EQjbe4sk</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1032,130 +1025,179 @@
     <t>24.10apk放置目录</t>
   </si>
   <si>
+    <t>远程账号信息</t>
+  </si>
+  <si>
+    <t>155 Android Build打包</t>
+  </si>
+  <si>
+    <t>10.1.23.155</t>
+  </si>
+  <si>
+    <t>TPService</t>
+  </si>
+  <si>
+    <t>Wincor2020</t>
+  </si>
+  <si>
+    <t>ALDI接口路径</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:9220/aco/swagger-ui.html#/Basket_API</t>
+  </si>
+  <si>
+    <t>Android拉取日志</t>
+  </si>
+  <si>
+    <t>adb pull /sdcard/aco/log/androidAco.log ../</t>
+  </si>
+  <si>
+    <t>美食工坊商品</t>
+  </si>
+  <si>
+    <t>select szItemLookupCode,szDesc ,szItemID from POSIdentity a,ItemLookupCode b where  a.szPOSItemID=b.szPOSItemID</t>
+  </si>
+  <si>
+    <t>PDA订货商品类型</t>
+  </si>
+  <si>
+    <t>select dbo.IMfn_GetItemPSAName(szpositemid),szpositemid from POSIdentity</t>
+  </si>
+  <si>
+    <t>apk打包</t>
+  </si>
+  <si>
+    <t>手动点击 Build打包路径</t>
+  </si>
+  <si>
+    <t>D:\code\aw.project.aldi\aco\app\app\release</t>
+  </si>
+  <si>
+    <t>命令行打包</t>
+  </si>
+  <si>
+    <t>D:\code\aw.project.aldi\aco\app\app\build\outputs\apk\release</t>
+  </si>
+  <si>
+    <t>命令：gradlew assembleRelease</t>
+  </si>
+  <si>
+    <t>jks文件路径</t>
+  </si>
+  <si>
+    <t>D:\code\aw.project.aldi\aco\app\app\wincor.jks</t>
+  </si>
+  <si>
+    <t>账号密码</t>
+  </si>
+  <si>
+    <t>key0</t>
+  </si>
+  <si>
+    <t>Wincor.com</t>
+  </si>
+  <si>
+    <t>项目路径</t>
+  </si>
+  <si>
+    <t>D:\code\aw.project.aldi</t>
+  </si>
+  <si>
+    <t>clone路径</t>
+  </si>
+  <si>
+    <t>git@git.aisino-wincor.com:aw.project.aldi/aco.git</t>
+  </si>
+  <si>
+    <t>D:\code\app\app</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>日志</t>
+  </si>
+  <si>
+    <t>钟先龙确定文档上线时间</t>
+  </si>
+  <si>
+    <t>\\SHHSP005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\50_Release Notes</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>霞姐</t>
+  </si>
+  <si>
     <t>E:\Pictures\Customer\APK</t>
-  </si>
-  <si>
-    <t>远程账号信息</t>
-  </si>
-  <si>
-    <t>155 Android Build打包</t>
-  </si>
-  <si>
-    <t>10.1.23.155</t>
-  </si>
-  <si>
-    <t>TPService</t>
-  </si>
-  <si>
-    <t>Wincor2020</t>
-  </si>
-  <si>
-    <t>ALDI接口路径</t>
-  </si>
-  <si>
-    <t>http://127.0.0.1:9220/aco/swagger-ui.html#/Basket_API</t>
-  </si>
-  <si>
-    <t>Android拉取日志</t>
-  </si>
-  <si>
-    <t>adb pull /sdcard/aco/log/androidAco.log ../</t>
-  </si>
-  <si>
-    <t>美食工坊商品</t>
-  </si>
-  <si>
-    <t>select szItemLookupCode,szDesc ,szItemID from POSIdentity a,ItemLookupCode b where  a.szPOSItemID=b.szPOSItemID</t>
-  </si>
-  <si>
-    <t>PDA订货商品类型</t>
-  </si>
-  <si>
-    <t>select dbo.IMfn_GetItemPSAName(szpositemid),szpositemid from POSIdentity</t>
-  </si>
-  <si>
-    <t>apk打包</t>
-  </si>
-  <si>
-    <t>手动点击 Build打包路径</t>
-  </si>
-  <si>
-    <t>D:\code\aw.project.aldi\aco\app\app\release</t>
-  </si>
-  <si>
-    <t>命令行打包</t>
-  </si>
-  <si>
-    <t>D:\code\aw.project.aldi\aco\app\app\build\outputs\apk\release</t>
-  </si>
-  <si>
-    <t>命令：gradlew assembleRelease</t>
-  </si>
-  <si>
-    <t>jks文件路径</t>
-  </si>
-  <si>
-    <t>D:\code\aw.project.aldi\aco\app\app\wincor.jks</t>
-  </si>
-  <si>
-    <t>账号密码</t>
-  </si>
-  <si>
-    <t>key0</t>
-  </si>
-  <si>
-    <t>Wincor.com</t>
-  </si>
-  <si>
-    <t>项目路径</t>
-  </si>
-  <si>
-    <t>D:\code\aw.project.aldi</t>
-  </si>
-  <si>
-    <t>clone路径</t>
-  </si>
-  <si>
-    <t>git@git.aisino-wincor.com:aw.project.aldi/aco.git</t>
-  </si>
-  <si>
-    <t>D:\code\app\app</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>日志</t>
-  </si>
-  <si>
-    <t>钟先龙确定文档上线时间</t>
-  </si>
-  <si>
-    <t>\\SHHSP005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\50_Release Notes</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>霞姐</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>j9@EQjbe4sk</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>rna.aldi.cn</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisheng_zhang_ext@aisino-wincor.com</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>补打小票：点击连接测试后，页面弹出较慢，返回其他界面，造成页面闪退</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否打印小票的 点击是 造成返回主界面提示交易失败。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增 Android版本号上传至BS功能。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复 主界面快速点击补打小票按钮造成管理员授权页面锁定问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化 支付成功后返回首页按钮效果不明显，返回首页速度较慢问题。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化 按下钮按后颜色改变。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付失败点击两次取消交易会闪退，可以加个按钮点击限制</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>会员登录界面多次点击登录造成闪退问题</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>补打小票界面同时操作多个小票详情按钮，造成闪退重启</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算成功后快速点击返回，系统返回主界面，等待5秒后，打印取餐码，系统闪退重启</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,7 +1222,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1195,14 +1237,15 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="微软雅黑"/>
-      <charset val="0"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1224,141 +1267,27 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1397,198 +1326,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1648,253 +1391,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1905,9 +1409,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1918,7 +1419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1939,19 +1440,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1986,19 +1487,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2044,16 +1536,7 @@
     <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2122,75 +1605,66 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.15"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <name val="等线"/>
-        <scheme val="none"/>
-        <b val="1"/>
+        <b/>
         <i val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color auto="1"/>
+        <name val="等线"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -2200,19 +1674,88 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="表样式 1" pivot="0" count="2">
+    <tableStyle name="表样式 1" pivot="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2226,7 +1769,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2470,3401 +2013,3509 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.225" style="32" customWidth="1"/>
-    <col min="2" max="2" width="50" style="34" customWidth="1"/>
-    <col min="3" max="3" width="44.8916666666667" style="34" customWidth="1"/>
-    <col min="4" max="4" width="45.8916666666667" style="32" customWidth="1"/>
-    <col min="5" max="5" width="22.6666666666667" style="32" customWidth="1"/>
-    <col min="6" max="6" width="61.1083333333333" style="32" customWidth="1"/>
-    <col min="7" max="16384" width="8.89166666666667" style="32"/>
+    <col min="1" max="1" width="11.21875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="50" style="33" customWidth="1"/>
+    <col min="3" max="3" width="44.88671875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" style="31" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" style="31" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" s="82" customFormat="1" spans="1:4">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:4" s="75" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:4">
-      <c r="A2" s="85">
+    <row r="2" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="78">
         <v>44103</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="33" spans="1:2">
-      <c r="A3" s="86">
+    <row r="3" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="79">
         <v>44116</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="49.5" spans="1:3">
-      <c r="A5" s="86">
+    <row r="5" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="79">
         <v>44127</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="86">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="79">
         <v>44131</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="33" spans="1:3">
-      <c r="A7" s="86">
+    <row r="7" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="79">
         <v>44132</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="49.5" spans="1:3">
-      <c r="A8" s="86">
+    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="79">
         <v>44133</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="1:2">
-      <c r="A9" s="86">
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="79">
         <v>44134</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="49.5" spans="1:2">
-      <c r="A10" s="86">
+    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="79">
         <v>44139</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="33" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="66" spans="1:4">
-      <c r="A11" s="86">
+    <row r="11" spans="1:4" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="79">
         <v>44140</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="49.5" spans="1:2">
-      <c r="A12" s="86">
+    <row r="12" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
         <v>44141</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" ht="82.5" spans="1:2">
-      <c r="A13" s="86">
+    <row r="13" spans="1:4" ht="78" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
         <v>44144</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" ht="82.5" spans="1:3">
-      <c r="A14" s="86">
+    <row r="14" spans="1:4" ht="78" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
         <v>44145</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="49.5" spans="1:3">
-      <c r="A15" s="86">
+    <row r="15" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
         <v>44146</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" ht="49.5" spans="1:4">
-      <c r="A16" s="86">
+    <row r="16" spans="1:4" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
         <v>44147</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" ht="49.5" spans="1:2">
-      <c r="A17" s="86">
+    <row r="17" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
         <v>44148</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="82.5" spans="1:2">
-      <c r="A18" s="86">
+    <row r="18" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
         <v>44165</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="33" spans="1:2">
-      <c r="A19" s="86">
+    <row r="19" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
         <v>44181</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="33" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.225" customWidth="1"/>
+    <col min="1" max="1" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44122</v>
       </c>
       <c r="B2" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6666666666667" style="41" customWidth="1"/>
-    <col min="2" max="2" width="27.3333333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="74.1083333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="28.5583333333333" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.8916666666667" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.3333333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="22.6666666666667" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="74.109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="28.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="9" style="2"/>
     <col min="9" max="9" width="16" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="71" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="64" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:6">
-      <c r="A2" s="72">
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="65">
         <v>44115</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" ht="33" spans="1:6">
-      <c r="A3" s="72">
+      <c r="D2" s="31"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A3" s="65">
         <v>44116</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="67" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" ht="33" spans="1:6">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.35">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="67" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" ht="33" spans="1:6">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A5" s="65"/>
+      <c r="B5" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="74" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="72"/>
-      <c r="B6" s="36" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="65"/>
+      <c r="B6" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="74" t="s">
+      <c r="D6" s="31"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="67" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="72"/>
-      <c r="B7" s="36" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="65"/>
+      <c r="B7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="74" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="67" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:6">
-      <c r="A8" s="72"/>
-      <c r="B8" s="34" t="s">
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A8" s="65"/>
+      <c r="B8" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="72"/>
-      <c r="B9" s="34" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="65"/>
+      <c r="B9" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="72"/>
-      <c r="B10" s="34" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="65"/>
+      <c r="B10" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="72"/>
-      <c r="B11" s="36" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="B11" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="72"/>
-      <c r="B12" s="36" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="65"/>
+      <c r="B12" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" ht="33" spans="1:6">
-      <c r="A13" s="72">
+      <c r="D12" s="31"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A13" s="65">
         <v>44117</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="34" t="s">
+      <c r="E13" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="F13" s="68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="1:6">
-      <c r="A14" s="72">
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A14" s="65">
         <v>44118</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="68" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="72"/>
-      <c r="B15" s="74" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="65"/>
+      <c r="B15" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" ht="33" spans="1:6">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A16" s="65"/>
+      <c r="B16" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" ht="33" spans="1:6">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74" t="s">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A17" s="65"/>
+      <c r="B17" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="72">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="33"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A18" s="65">
         <v>44120</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="34"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="72">
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A19" s="65">
         <v>44122</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" ht="33" spans="1:6">
-      <c r="A20" s="72"/>
-      <c r="B20" s="34" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
+      <c r="B20" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="34"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="72"/>
-      <c r="B21" s="36" t="s">
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="34"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="72">
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="65">
         <v>44124</v>
       </c>
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="34"/>
-    </row>
-    <row r="23" ht="49.5" spans="1:6">
-      <c r="A23" s="72"/>
-      <c r="B23" s="36" t="s">
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+    </row>
+    <row r="23" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A23" s="65"/>
+      <c r="B23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="36" t="s">
+      <c r="C23" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="72"/>
-      <c r="B24" s="36" t="s">
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="65"/>
+      <c r="B24" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="72"/>
-      <c r="B25" s="74" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="33"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="65"/>
+      <c r="B25" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="34"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="72"/>
-      <c r="B26" s="74" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="33"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="65"/>
+      <c r="B26" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="34"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="72"/>
-      <c r="B27" s="36" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="33"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="65"/>
+      <c r="B27" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="72">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="33"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="65">
         <v>44125</v>
       </c>
-      <c r="B28" s="36" t="s">
+      <c r="B28" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="72"/>
-      <c r="B29" s="36" t="s">
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="33"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="65"/>
+      <c r="B29" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="72"/>
-      <c r="B30" s="36" t="s">
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="33"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="65"/>
+      <c r="B30" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="36" t="s">
+      <c r="C30" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="34"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="72"/>
-      <c r="B31" s="36" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="65"/>
+      <c r="B31" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="36"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="34"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="72"/>
-      <c r="B32" s="36" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="65"/>
+      <c r="B32" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="34"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="72"/>
-      <c r="B33" s="36" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="65"/>
+      <c r="B33" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="36" t="s">
+      <c r="C33" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="72"/>
-      <c r="B34" s="36" t="s">
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" s="65"/>
+      <c r="B34" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="36" t="s">
+      <c r="C34" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="72"/>
-      <c r="B35" s="36" t="s">
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="65"/>
+      <c r="B35" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="36" t="s">
+      <c r="C35" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="72"/>
-      <c r="B36" s="36" t="s">
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="65"/>
+      <c r="B36" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="36" t="s">
+      <c r="C36" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" ht="33" spans="1:6">
-      <c r="A37" s="72">
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A37" s="65">
         <v>44126</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="72"/>
-      <c r="B38" s="36" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="65"/>
+      <c r="B38" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="36" t="s">
+      <c r="C38" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" ht="49.5" spans="1:6">
-      <c r="A39" s="72"/>
-      <c r="B39" s="34" t="s">
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A39" s="65"/>
+      <c r="B39" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" ht="33" spans="1:6">
-      <c r="A40" s="72"/>
-      <c r="B40" s="34" t="s">
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="33"/>
+    </row>
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A40" s="65"/>
+      <c r="B40" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="72"/>
-      <c r="B41" s="36" t="s">
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="65"/>
+      <c r="B41" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="36" t="s">
+      <c r="C41" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" ht="33" spans="1:6">
-      <c r="A42" s="72"/>
-      <c r="B42" s="76" t="s">
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="33"/>
+    </row>
+    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A42" s="65"/>
+      <c r="B42" s="69" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="34"/>
-    </row>
-    <row r="43" ht="33" spans="1:6">
-      <c r="A43" s="72"/>
-      <c r="B43" s="76" t="s">
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="33"/>
+    </row>
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A43" s="65"/>
+      <c r="B43" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="34"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="72"/>
-      <c r="B44" s="34" t="s">
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="65"/>
+      <c r="B44" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="72">
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="65">
         <v>44130</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="34" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="33" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" ht="82.5" spans="1:6">
-      <c r="A46" s="72"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34" t="s">
+    <row r="46" spans="1:6" ht="93.6" x14ac:dyDescent="0.35">
+      <c r="A46" s="65"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D46" s="34" t="s">
+      <c r="D46" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="77" t="s">
+      <c r="E46" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="77" t="s">
+      <c r="F46" s="70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="72"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="34" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="65"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="72"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="34" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="65"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="72"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="34" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="65"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="33" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="72"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="34" t="s">
+    <row r="50" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A50" s="65"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="33" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="78">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="71">
         <v>44132</v>
       </c>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="66" t="s">
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="66" t="s">
+      <c r="E51" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="F51" s="79"/>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="78"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="66" t="s">
+      <c r="F51" s="72"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="71"/>
+      <c r="B52" s="72"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="66" t="s">
+      <c r="E52" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="F52" s="79"/>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="78"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66" t="s">
+      <c r="F52" s="72"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="71"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="79"/>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="78">
+      <c r="F53" s="72"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="71">
         <v>44130</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66" t="s">
+      <c r="B54" s="72"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="79"/>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="41" t="s">
+      <c r="F54" s="72"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="37" t="s">
         <v>142</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="41" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="37" t="s">
         <v>144</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="41" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="41" t="s">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="41" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="80">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="73">
         <v>44137</v>
       </c>
-      <c r="B61" s="81">
+      <c r="B61" s="74">
         <v>1</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="72" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="79"/>
-      <c r="B62" s="81">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="72"/>
+      <c r="B62" s="74">
         <v>2</v>
       </c>
-      <c r="C62" s="79" t="s">
+      <c r="C62" s="72" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="79"/>
-      <c r="B63" s="81">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="72"/>
+      <c r="B63" s="74">
         <v>3</v>
       </c>
-      <c r="C63" s="79" t="s">
+      <c r="C63" s="72" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="79"/>
-      <c r="B64" s="81">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="72"/>
+      <c r="B64" s="74">
         <v>4</v>
       </c>
-      <c r="C64" s="79" t="s">
+      <c r="C64" s="72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="79"/>
-      <c r="B65" s="81">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="72"/>
+      <c r="B65" s="74">
         <v>5</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="72" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="66" ht="49.5" spans="1:3">
-      <c r="A66" s="79"/>
-      <c r="B66" s="81">
+    <row r="66" spans="1:3" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A66" s="72"/>
+      <c r="B66" s="74">
         <v>6</v>
       </c>
-      <c r="C66" s="79" t="s">
+      <c r="C66" s="72" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="79"/>
-      <c r="B67" s="81">
+    <row r="67" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A67" s="72"/>
+      <c r="B67" s="74">
         <v>7</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="72" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="79"/>
-      <c r="B68" s="81">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="72"/>
+      <c r="B68" s="74">
         <v>8</v>
       </c>
-      <c r="C68" s="79" t="s">
+      <c r="C68" s="72" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="79"/>
-      <c r="B69" s="81">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="72"/>
+      <c r="B69" s="74">
         <v>9</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="72" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="70" ht="33" spans="1:3">
-      <c r="A70" s="79"/>
-      <c r="B70" s="81">
+    <row r="70" spans="1:3" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A70" s="72"/>
+      <c r="B70" s="74">
         <v>10</v>
       </c>
-      <c r="C70" s="79" t="s">
+      <c r="C70" s="72" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="79"/>
-      <c r="B71" s="81">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="72"/>
+      <c r="B71" s="74">
         <v>11</v>
       </c>
-      <c r="C71" s="79" t="s">
+      <c r="C71" s="72" t="s">
         <v>160</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="41" customWidth="1"/>
-    <col min="2" max="2" width="4.775" style="42" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="42" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8916666666667" style="42" customWidth="1"/>
-    <col min="5" max="5" width="38.1083333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.775" style="5" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.775" style="5" customWidth="1"/>
-    <col min="8" max="8" width="49.8916666666667" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.89166666666667" style="2"/>
+    <col min="1" max="1" width="12.44140625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="4.77734375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" style="38" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="49.88671875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:8">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="41" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="46">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="42">
         <v>44137</v>
       </c>
-      <c r="B2" s="47">
+      <c r="B2" s="43">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="48" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="44" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:8">
-      <c r="A3" s="46"/>
-      <c r="B3" s="47">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43">
         <v>2</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="44" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="47">
+    <row r="4" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="G4" s="49" t="s">
+      <c r="G4" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="44" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:8">
-      <c r="A5" s="46"/>
-      <c r="B5" s="47">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43">
         <v>4</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:8">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43">
         <v>5</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="48" t="s">
+      <c r="E6" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="G6" s="49" t="s">
+      <c r="G6" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" ht="57" spans="1:8">
-      <c r="A7" s="46"/>
-      <c r="B7" s="47">
+    <row r="7" spans="1:8" ht="52.8" x14ac:dyDescent="0.35">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43">
         <v>6</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="43"/>
+      <c r="D7" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" ht="185.25" spans="1:8">
-      <c r="A8" s="46"/>
-      <c r="B8" s="47">
+    <row r="8" spans="1:8" ht="184.8" x14ac:dyDescent="0.35">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43">
         <v>7</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="48" t="s">
+      <c r="E8" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="44" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:8">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43">
         <v>8</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="10" ht="28.5" spans="1:8">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47">
+    <row r="10" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43">
         <v>9</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" ht="42.75" spans="1:8">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47">
+    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43">
         <v>10</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47" t="s">
+      <c r="C11" s="43"/>
+      <c r="D11" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="12" ht="28.5" spans="1:8">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47">
+    <row r="12" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43">
         <v>11</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47" t="s">
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="44" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="13" ht="42.75" spans="1:8">
-      <c r="A13" s="46">
+    <row r="13" spans="1:8" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="42">
         <v>44138</v>
       </c>
-      <c r="B13" s="47">
+      <c r="B13" s="43">
         <v>12</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="43"/>
+      <c r="D13" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="44" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="44" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="14" ht="28.5" spans="1:8">
-      <c r="A14" s="48"/>
-      <c r="B14" s="47">
+    <row r="14" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A14" s="44"/>
+      <c r="B14" s="43">
         <v>13</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="43"/>
+      <c r="D14" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" ht="42.75" spans="1:8">
-      <c r="A15" s="51" t="s">
+    <row r="15" spans="1:8" ht="39.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="43">
         <v>14</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="E15" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="44" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="16" ht="28.5" spans="1:8">
-      <c r="A16" s="51">
+    <row r="16" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A16" s="47">
         <v>44140</v>
       </c>
-      <c r="B16" s="47">
+      <c r="B16" s="43">
         <v>15</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="44" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="49" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="17" ht="28.5" spans="1:8">
-      <c r="A17" s="48"/>
-      <c r="B17" s="47">
+    <row r="17" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A17" s="44"/>
+      <c r="B17" s="43">
         <v>16</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H17" s="48"/>
-    </row>
-    <row r="18" ht="28.5" spans="1:8">
-      <c r="A18" s="54"/>
-      <c r="B18" s="47">
+      <c r="H17" s="44"/>
+    </row>
+    <row r="18" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A18" s="50"/>
+      <c r="B18" s="43">
         <v>17</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48" t="s">
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="44" t="s">
         <v>210</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="49" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" ht="28.5" spans="1:8">
-      <c r="A19" s="54"/>
-      <c r="B19" s="47">
+    <row r="19" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A19" s="50"/>
+      <c r="B19" s="43">
         <v>18</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48" t="s">
+      <c r="C19" s="43"/>
+      <c r="D19" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="21" ht="28.5" spans="1:8">
-      <c r="A21" s="55">
+    <row r="21" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A21" s="51">
         <v>44158</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="49">
         <v>1</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="48" t="s">
+      <c r="D21" s="52"/>
+      <c r="E21" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="80" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H21" s="53"/>
-    </row>
-    <row r="22" ht="28.5" spans="1:8">
-      <c r="A22" s="58"/>
-      <c r="B22" s="53">
+      <c r="H21" s="49"/>
+    </row>
+    <row r="22" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A22" s="53"/>
+      <c r="B22" s="49">
         <v>2</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="48" t="s">
+      <c r="D22" s="52"/>
+      <c r="E22" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="59"/>
-      <c r="G22" s="49" t="s">
+      <c r="F22" s="81"/>
+      <c r="G22" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" ht="28.5" spans="1:8">
-      <c r="A23" s="58"/>
-      <c r="B23" s="53">
+      <c r="H22" s="49"/>
+    </row>
+    <row r="23" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A23" s="53"/>
+      <c r="B23" s="49">
         <v>3</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="52"/>
+      <c r="E23" s="44" t="s">
         <v>216</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="49" t="s">
+      <c r="F23" s="81"/>
+      <c r="G23" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:8">
-      <c r="A24" s="58"/>
-      <c r="B24" s="53">
+      <c r="H23" s="49"/>
+    </row>
+    <row r="24" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A24" s="53"/>
+      <c r="B24" s="49">
         <v>4</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="48" t="s">
+      <c r="D24" s="52"/>
+      <c r="E24" s="44" t="s">
         <v>217</v>
       </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="48" t="s">
+      <c r="F24" s="81"/>
+      <c r="G24" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" ht="28.5" spans="1:8">
-      <c r="A25" s="58"/>
-      <c r="B25" s="53">
+    <row r="25" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A25" s="53"/>
+      <c r="B25" s="49">
         <v>5</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="48" t="s">
+      <c r="D25" s="52"/>
+      <c r="E25" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="49" t="s">
+      <c r="F25" s="81"/>
+      <c r="G25" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:8">
-      <c r="A26" s="58"/>
-      <c r="B26" s="53">
+      <c r="H25" s="49"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="53"/>
+      <c r="B26" s="49">
         <v>6</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="48" t="s">
+      <c r="D26" s="52"/>
+      <c r="E26" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="49" t="s">
+      <c r="F26" s="81"/>
+      <c r="G26" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" ht="28.5" spans="1:8">
-      <c r="A27" s="58"/>
-      <c r="B27" s="53">
+      <c r="H26" s="49"/>
+    </row>
+    <row r="27" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A27" s="53"/>
+      <c r="B27" s="49">
         <v>7</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="48" t="s">
+      <c r="D27" s="52"/>
+      <c r="E27" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="F27" s="60"/>
-      <c r="G27" s="48" t="s">
+      <c r="F27" s="82"/>
+      <c r="G27" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="H27" s="48" t="s">
+      <c r="H27" s="44" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" ht="28.5" spans="1:8">
-      <c r="A28" s="58"/>
-      <c r="B28" s="53">
+    <row r="28" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A28" s="53"/>
+      <c r="B28" s="49">
         <v>8</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="53"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:8">
-      <c r="A29" s="58"/>
-      <c r="B29" s="53">
+      <c r="H28" s="49"/>
+    </row>
+    <row r="29" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A29" s="53"/>
+      <c r="B29" s="49">
         <v>9</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="48" t="s">
+      <c r="D29" s="52"/>
+      <c r="E29" s="44" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="59"/>
-      <c r="G29" s="49" t="s">
+      <c r="F29" s="81"/>
+      <c r="G29" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:8">
-      <c r="A30" s="58"/>
-      <c r="B30" s="53">
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A30" s="53"/>
+      <c r="B30" s="49">
         <v>10</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="50" t="s">
+      <c r="F30" s="81"/>
+      <c r="G30" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="49" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="31" ht="28.5" spans="1:8">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48">
+    <row r="31" spans="1:8" ht="26.4" x14ac:dyDescent="0.35">
+      <c r="A31" s="44"/>
+      <c r="B31" s="44">
         <v>11</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48" t="s">
+      <c r="D31" s="44"/>
+      <c r="E31" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="48" t="s">
+      <c r="F31" s="81"/>
+      <c r="G31" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="48" t="s">
+      <c r="H31" s="44" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="32" ht="57" spans="1:8">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48">
+    <row r="32" spans="1:8" ht="52.8" x14ac:dyDescent="0.35">
+      <c r="A32" s="44"/>
+      <c r="B32" s="44">
         <v>12</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="F32" s="59"/>
-      <c r="G32" s="50" t="s">
+      <c r="F32" s="81"/>
+      <c r="G32" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H32" s="48" t="s">
+      <c r="H32" s="44" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="33" ht="156.75" spans="1:8">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48">
+    <row r="33" spans="1:8" ht="145.19999999999999" x14ac:dyDescent="0.35">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44">
         <v>13</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="F33" s="60"/>
-      <c r="G33" s="48" t="s">
+      <c r="F33" s="82"/>
+      <c r="G33" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="44" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="41">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="37">
         <v>44183</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E37" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="40" ht="94.5" spans="1:8">
-      <c r="A40" s="61">
+    <row r="40" spans="1:8" ht="96.6" x14ac:dyDescent="0.35">
+      <c r="A40" s="54">
         <v>44186</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="55">
         <v>1</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65" t="s">
+      <c r="C40" s="56"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="49" t="s">
+      <c r="F40" s="7"/>
+      <c r="G40" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="31" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="41" ht="27" spans="1:8">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62">
+    <row r="41" spans="1:8" ht="27.6" x14ac:dyDescent="0.35">
+      <c r="A41" s="54"/>
+      <c r="B41" s="55">
         <v>2</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65" t="s">
+      <c r="C41" s="56"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="50" t="s">
+      <c r="F41" s="7"/>
+      <c r="G41" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="H41" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="42" ht="27" spans="1:8">
-      <c r="A42" s="61"/>
-      <c r="B42" s="62">
+    <row r="42" spans="1:8" ht="27.6" x14ac:dyDescent="0.35">
+      <c r="A42" s="54"/>
+      <c r="B42" s="55">
         <v>3</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="65" t="s">
+      <c r="C42" s="56"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="50" t="s">
+      <c r="F42" s="7"/>
+      <c r="G42" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H42" s="32" t="s">
+      <c r="H42" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="43" ht="27" spans="1:8">
-      <c r="A43" s="61"/>
-      <c r="B43" s="62">
+    <row r="43" spans="1:8" ht="27.6" x14ac:dyDescent="0.35">
+      <c r="A43" s="54"/>
+      <c r="B43" s="55">
         <v>4</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="64">
+      <c r="C43" s="56"/>
+      <c r="D43" s="57">
         <v>1090</v>
       </c>
-      <c r="E43" s="65" t="s">
+      <c r="E43" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="50" t="s">
+      <c r="F43" s="7"/>
+      <c r="G43" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H43" s="32" t="s">
+      <c r="H43" s="31" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="44" ht="40.5" spans="1:8">
-      <c r="A44" s="61"/>
-      <c r="B44" s="62">
+    <row r="44" spans="1:8" ht="41.4" x14ac:dyDescent="0.35">
+      <c r="A44" s="54"/>
+      <c r="B44" s="55">
         <v>5</v>
       </c>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="65" t="s">
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="F44" s="8"/>
-      <c r="G44" s="50" t="s">
+      <c r="F44" s="7"/>
+      <c r="G44" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="45" ht="27" spans="1:8">
-      <c r="A45" s="61"/>
-      <c r="B45" s="62">
+    <row r="45" spans="1:8" ht="27.6" x14ac:dyDescent="0.35">
+      <c r="A45" s="54"/>
+      <c r="B45" s="55">
         <v>6</v>
       </c>
-      <c r="C45" s="63"/>
-      <c r="D45" s="64">
+      <c r="C45" s="56"/>
+      <c r="D45" s="57">
         <v>1089</v>
       </c>
-      <c r="E45" s="65" t="s">
+      <c r="E45" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="50" t="s">
+      <c r="F45" s="7"/>
+      <c r="G45" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H45" s="32"/>
-    </row>
-    <row r="46" spans="8:8">
-      <c r="H46" s="66"/>
-    </row>
-    <row r="47" ht="33" spans="1:8">
-      <c r="A47" s="67">
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="59"/>
+    </row>
+    <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A47" s="60">
         <v>44188</v>
       </c>
-      <c r="B47" s="33">
+      <c r="B47" s="32">
         <v>1</v>
       </c>
-      <c r="C47" s="64"/>
-      <c r="D47" s="64"/>
-      <c r="E47" s="34" t="s">
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="50" t="s">
+      <c r="F47" s="7"/>
+      <c r="G47" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H47" s="32" t="s">
+      <c r="H47" s="31" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="67"/>
-      <c r="B48" s="33">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="60"/>
+      <c r="B48" s="32">
         <v>2</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="34" t="s">
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="50" t="s">
+      <c r="F48" s="7"/>
+      <c r="G48" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="49" ht="33" spans="1:8">
-      <c r="A49" s="67"/>
-      <c r="B49" s="33">
+    <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A49" s="60"/>
+      <c r="B49" s="32">
         <v>3</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57">
         <v>1091</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="92" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H49" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="49" t="s">
+    </row>
+    <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A50" s="60"/>
+      <c r="B50" s="32">
+        <v>4</v>
+      </c>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57">
+        <v>1103</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A51" s="60"/>
+      <c r="B51" s="32">
+        <v>5</v>
+      </c>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57">
+        <v>1102</v>
+      </c>
+      <c r="E51" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+      <c r="B52" s="62">
+        <v>6</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62">
+        <v>1101</v>
+      </c>
+      <c r="E52" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="H49" s="32" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="67"/>
-      <c r="B50" s="33">
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A53" s="60"/>
+      <c r="B53" s="57">
+        <v>7</v>
+      </c>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="90" t="s">
+        <v>333</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="60">
+        <v>44193</v>
+      </c>
+      <c r="B55" s="57">
+        <v>1</v>
+      </c>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="90" t="s">
+        <v>335</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A56" s="60"/>
+      <c r="B56" s="57">
+        <v>2</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="90" t="s">
+        <v>336</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A57" s="60"/>
+      <c r="B57" s="57">
+        <v>3</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="90" t="s">
+        <v>337</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="60"/>
+      <c r="B58" s="57">
         <v>4</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64">
-        <v>1103</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" s="32"/>
-    </row>
-    <row r="51" ht="33" spans="1:8">
-      <c r="A51" s="67"/>
-      <c r="B51" s="33">
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="90" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A59" s="60"/>
+      <c r="B59" s="57">
         <v>5</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="64">
-        <v>1102</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="50" t="s">
-        <v>193</v>
-      </c>
-      <c r="H51" s="32"/>
-    </row>
-    <row r="52" ht="33" spans="1:8">
-      <c r="A52" s="68"/>
-      <c r="B52" s="69">
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="90" t="s">
+        <v>339</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="60"/>
+      <c r="B60" s="57">
         <v>6</v>
       </c>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69">
-        <v>1101</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="H52" s="32"/>
-    </row>
-    <row r="53" ht="33" spans="1:8">
-      <c r="A53" s="67"/>
-      <c r="B53" s="64">
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="90" t="s">
+        <v>340</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A61" s="60"/>
+      <c r="B61" s="62">
         <v>7</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="64"/>
-      <c r="E53" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="H53" s="32"/>
+      <c r="E61" s="93" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A62" s="60"/>
+      <c r="B62" s="32">
+        <v>8</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="90" t="s">
+        <v>342</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H19">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H19" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F21:F27"/>
     <mergeCell ref="F28:F33"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H14" sqref="A1:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5"/>
-    <col min="4" max="4" width="10.8916666666667" style="28" customWidth="1"/>
-    <col min="5" max="5" width="38.1083333333333" style="24" customWidth="1"/>
-    <col min="6" max="6" width="6.775" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.8833333333333" style="24" customWidth="1"/>
-    <col min="8" max="8" width="49.8916666666667" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625"/>
+    <col min="4" max="4" width="10.88671875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="38.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="6.77734375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="23" customWidth="1"/>
+    <col min="8" max="8" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:8">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
-        <v>257</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:8">
-      <c r="A2" s="31">
+    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <v>44158</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="83" t="s">
         <v>177</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" ht="33" spans="1:8">
-      <c r="A3" s="37"/>
-      <c r="B3" s="32">
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="31">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="36" t="s">
+      <c r="F3" s="84"/>
+      <c r="G3" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" ht="33" spans="1:8">
-      <c r="A4" s="37"/>
-      <c r="B4" s="32">
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="31">
         <v>3</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="32"/>
+      <c r="E4" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" ht="33" spans="1:8">
-      <c r="A5" s="37"/>
-      <c r="B5" s="32">
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="33" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="84"/>
+      <c r="G5" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" ht="33" spans="1:8">
-      <c r="A6" s="37"/>
-      <c r="B6" s="32">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" ht="33" spans="1:8">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32">
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="35"/>
+      <c r="B7" s="31">
         <v>6</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="84"/>
+      <c r="G7" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H7" s="32"/>
-    </row>
-    <row r="8" ht="33" spans="1:8">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32">
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="31">
         <v>7</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>213</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="85"/>
+      <c r="G8" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="1:8">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32">
+    <row r="9" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="31">
         <v>8</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="83" t="s">
         <v>184</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" ht="33" spans="1:8">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32">
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="31">
         <v>9</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="33" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="84"/>
+      <c r="G10" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="H10" s="32"/>
-    </row>
-    <row r="11" ht="33" spans="1:8">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32">
+      <c r="H10" s="31"/>
+    </row>
+    <row r="11" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="35"/>
+      <c r="B11" s="31">
         <v>10</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>223</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="40" t="s">
+      <c r="F11" s="84"/>
+      <c r="G11" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="31" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="1:8">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33">
         <v>11</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="34" t="s">
+      <c r="F12" s="84"/>
+      <c r="G12" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="33" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="13" ht="66" spans="1:8">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34">
+    <row r="13" spans="1:8" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33">
         <v>12</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="40" t="s">
+      <c r="F13" s="84"/>
+      <c r="G13" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="33" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="14" ht="181.5" spans="1:8">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34">
+    <row r="14" spans="1:8" ht="202.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="33">
         <v>13</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
         <v>235</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="34" t="s">
+      <c r="F14" s="85"/>
+      <c r="G14" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="34" t="s">
+      <c r="H14" s="33" t="s">
         <v>236</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:H14">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="D1:H14" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <mergeCells count="2">
     <mergeCell ref="F2:F8"/>
     <mergeCell ref="F9:F14"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.225" style="24" customWidth="1"/>
-    <col min="2" max="2" width="6" style="24" customWidth="1"/>
-    <col min="3" max="3" width="8.775" style="24" customWidth="1"/>
-    <col min="4" max="4" width="36.6666666666667" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.10833333333333" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="8.89166666666667" style="24"/>
+    <col min="1" max="1" width="10.21875" style="23" customWidth="1"/>
+    <col min="2" max="2" width="6" style="23" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="23" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>44140</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="25" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26">
+        <v>2</v>
+      </c>
+      <c r="C3" s="26" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="26">
-        <v>44140</v>
-      </c>
-      <c r="B2" s="27">
-        <v>1</v>
-      </c>
-      <c r="C2" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="E3" s="26" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="55.2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26">
+        <v>3</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27">
-        <v>2</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>266</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" hidden="1" spans="1:5">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27">
-        <v>3</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="13" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="37.4416666666667" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.775" style="14" customWidth="1"/>
-    <col min="5" max="5" width="36.5583333333333" style="14" customWidth="1"/>
-    <col min="6" max="7" width="8.89166666666667" style="14"/>
-    <col min="8" max="8" width="13.8916666666667" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="8.89166666666667" style="14"/>
+    <col min="1" max="1" width="33.21875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="36.5546875" style="13" customWidth="1"/>
+    <col min="6" max="7" width="8.88671875" style="13"/>
+    <col min="8" max="8" width="13.88671875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B2" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="17" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="14" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C4" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C5" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="D3" s="14" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="21" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C7" s="14">
+        <v>8888</v>
+      </c>
+      <c r="D7" s="13">
+        <v>20190923</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="B9" s="17" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="C9" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="D9" s="13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="12" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="B10" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="C10" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="B11" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C7" s="15">
-        <v>8888</v>
-      </c>
-      <c r="D7" s="14">
-        <v>20190923</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="13" t="s">
+      <c r="C11" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="13">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="31.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="B13" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="14">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="13" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B14" s="89" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16" s="14"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D10" s="14">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="13" t="s">
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B18" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D11" s="14">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="20" t="s">
+      <c r="C18" s="14" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="13" ht="33" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="B13" s="15" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.8" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="13" t="s">
+      <c r="B20" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="B14" s="15" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="31.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="15"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="23" t="s">
+      <c r="B22" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>303</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" ht="33" spans="1:2">
-      <c r="A20" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" ht="33" spans="1:2">
-      <c r="A22" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" s="14"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="jisheng_zhang_ext@aisino-wincor.com" tooltip="mailto:jisheng_zhang_ext@aisino-wincor.com"/>
-    <hyperlink ref="D2" r:id="rId2" display="j9@EQjbe4sk" tooltip="mailto:j9@EQjbe4sk"/>
-    <hyperlink ref="C3" r:id="rId3" display="chenglin_zhang_ext@aisino-wincor.com"/>
-    <hyperlink ref="B10" r:id="rId4" display="http://10.224.22.117:8080/login" tooltip="http://10.224.22.117:8080/login"/>
-    <hyperlink ref="B11" r:id="rId5" display="http://10.224.2.107:8080/login" tooltip="http://10.224.2.107:8080/login"/>
-    <hyperlink ref="B9" r:id="rId6" display="http://10.224.17.106:8080/login" tooltip="http://10.224.17.106:8080/login"/>
-    <hyperlink ref="B4" r:id="rId7" display="\\10.224.14.11\store$\Wincor\ck" tooltip="\\10.224.14.11\store$\Wincor\ck"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="mailto:jisheng_zhang_ext@aisino-wincor.com" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D2" r:id="rId2" tooltip="mailto:j9@EQjbe4sk" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0500-000002000000}"/>
+    <hyperlink ref="B10" r:id="rId4" tooltip="http://10.224.22.117:8080/login" xr:uid="{00000000-0004-0000-0500-000003000000}"/>
+    <hyperlink ref="B11" r:id="rId5" tooltip="http://10.224.2.107:8080/login" xr:uid="{00000000-0004-0000-0500-000004000000}"/>
+    <hyperlink ref="B9" r:id="rId6" tooltip="http://10.224.17.106:8080/login" xr:uid="{00000000-0004-0000-0500-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" tooltip="\\10.224.14.11\store$\Wincor\ck" xr:uid="{00000000-0004-0000-0500-000006000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11:Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="2" customWidth="1"/>
     <col min="2" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="86"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
+      <c r="Q9" s="86"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
+      <c r="Q11" s="86"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
+      <c r="Q12" s="86"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
+      <c r="Q14" s="86"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
+      <c r="Q15" s="86"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
+      <c r="Q16" s="86"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="86"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="86"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
+      <c r="Q17" s="86"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
+      <c r="Q19" s="86"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A20" s="8"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A21" s="8"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="86"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A22" s="8"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A23" s="8"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A25" s="8"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B26:Q26"/>
+    <mergeCell ref="B21:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B20:Q20"/>
+    <mergeCell ref="B11:Q11"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="B7:Q7"/>
+    <mergeCell ref="B8:Q8"/>
+    <mergeCell ref="B9:Q9"/>
+    <mergeCell ref="B10:Q10"/>
     <mergeCell ref="B1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="B7:Q7"/>
-    <mergeCell ref="B8:Q8"/>
-    <mergeCell ref="B9:Q9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="B11:Q11"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B20:Q20"/>
-    <mergeCell ref="B21:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B26:Q26"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="20.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="48.25" style="5" customWidth="1"/>
-    <col min="4" max="4" width="32.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.21875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" x14ac:dyDescent="0.35">
+      <c r="A2" s="88"/>
+      <c r="B2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="88"/>
+      <c r="B3" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="88"/>
+      <c r="B4" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C4" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" ht="33" spans="1:5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="88"/>
+      <c r="B5" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="88"/>
+      <c r="B6" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" ht="17.25" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="C6" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="11"/>
+      <c r="C7" s="5" t="s">
         <v>321</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" ht="17.25" spans="2:3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="5" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A6"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" display="git@git.aisino-wincor.com:aw.project.aldi/aco.git" tooltip="mailto:git@git.aisino-wincor.com:aw.project.aldi/aco.git"/>
+    <hyperlink ref="C6" r:id="rId1" tooltip="mailto:git@git.aisino-wincor.com:aw.project.aldi/aco.git" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.125" style="2"/>
-    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="2"/>
+    <col min="2" max="2" width="24.109375" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>44181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>